--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="212">
   <si>
     <t>PharmBills System</t>
   </si>
@@ -34,544 +34,622 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>64b936ae-bbeb-4513-a787-035eea4a800a</t>
+    <t>89e0821a-f638-4c17-a5c7-468c063ca77c</t>
+  </si>
+  <si>
+    <t>10-02-2023</t>
   </si>
   <si>
     <t>Amerigroup</t>
   </si>
   <si>
-    <t>c26c2333-c303-4d2f-bad3-04dbd769a73f</t>
+    <t>62faf489-b0c9-4132-8592-aa4644916f6e</t>
+  </si>
+  <si>
+    <t>10-04-2023</t>
   </si>
   <si>
     <t>Preauthorized Credit</t>
   </si>
   <si>
-    <t>118a9597-65ad-43e8-8929-ddb84c00ef6d</t>
+    <t>60297305-d3a7-40a7-b8ea-4ac99c21b68d</t>
+  </si>
+  <si>
+    <t>10-23-2023</t>
   </si>
   <si>
     <t>uhc</t>
   </si>
   <si>
-    <t>1ac7469f-ef52-47fc-b50b-c521ac5582da</t>
-  </si>
-  <si>
-    <t>f20c9164-a956-4422-8a5a-c8ae9db54a43</t>
+    <t>0bb0e16e-99f2-4c6d-92c7-35113bee8e19</t>
+  </si>
+  <si>
+    <t>7355588e-d356-4ed7-b5cc-98d2e94d7a4b</t>
+  </si>
+  <si>
+    <t>10-11-2023</t>
   </si>
   <si>
     <t>Horizon NJ Health</t>
   </si>
   <si>
-    <t>19bd8e45-bec6-4139-87bb-fd7d25a4ff42</t>
-  </si>
-  <si>
-    <t>6dfcee68-53b9-4add-bc18-1f2ad7bfea43</t>
-  </si>
-  <si>
-    <t>70678394-75fa-4a49-8fb6-f022b2cd1bd0</t>
-  </si>
-  <si>
-    <t>ad11f941-2cda-414b-a54a-1cc699a1b180</t>
-  </si>
-  <si>
-    <t>48b5dad8-1a96-4995-8fa1-ccabce78da45</t>
-  </si>
-  <si>
-    <t>5d3dc1a3-6ed0-4e89-b8a0-08943abcb8fe</t>
-  </si>
-  <si>
-    <t>4e6b8582-6c68-4f6f-be25-232b5a49e504</t>
-  </si>
-  <si>
-    <t>6de761e1-b2c9-4b43-b088-0e99f54af800</t>
-  </si>
-  <si>
-    <t>c384e64d-72c0-47a3-aac7-22815e926f90</t>
-  </si>
-  <si>
-    <t>c65e1970-3b88-4535-b98a-1b71f6f724b7</t>
-  </si>
-  <si>
-    <t>78280deb-a915-4e54-b1a2-1ab62677b142</t>
-  </si>
-  <si>
-    <t>044d54af-9a82-4ae4-95db-dca2429efaa3</t>
+    <t>1a69aeeb-4810-45b3-8cc4-d4ae48f800bf</t>
+  </si>
+  <si>
+    <t>3260e6c0-045e-4f31-80dd-26f95c9c7fba</t>
+  </si>
+  <si>
+    <t>10-05-2023</t>
+  </si>
+  <si>
+    <t>5951180e-bf86-4b33-be3d-5697fc369b55</t>
+  </si>
+  <si>
+    <t>10-10-2023</t>
+  </si>
+  <si>
+    <t>6be2f3ab-9969-440c-9f93-6d2de15dabc6</t>
+  </si>
+  <si>
+    <t>10-18-2023</t>
+  </si>
+  <si>
+    <t>554b6dd7-2bc2-4055-8741-d7ee3d7aacae</t>
+  </si>
+  <si>
+    <t>44f533a4-1e59-40f9-829f-315258f3b344</t>
+  </si>
+  <si>
+    <t>10-25-2023</t>
+  </si>
+  <si>
+    <t>ff23d572-8761-468b-b0fa-cb7ecde86bb5</t>
+  </si>
+  <si>
+    <t>6baeb7b7-7065-4718-955b-992492a61dc3</t>
+  </si>
+  <si>
+    <t>10-13-2023</t>
+  </si>
+  <si>
+    <t>6811d404-406c-4ee2-b813-203c21a66533</t>
+  </si>
+  <si>
+    <t>10-17-2023</t>
+  </si>
+  <si>
+    <t>42f23ce6-d91d-4548-9a37-5b07406d43a2</t>
+  </si>
+  <si>
+    <t>10-09-2023</t>
+  </si>
+  <si>
+    <t>756ca73d-86bb-4ece-8181-b41e9af3334f</t>
+  </si>
+  <si>
+    <t>cb889c0a-d418-47ef-aa72-91d4e72d7ce6</t>
   </si>
   <si>
     <t>facility depost</t>
   </si>
   <si>
-    <t>fd032da9-9861-4cad-b3a3-b8d75fb14f41</t>
+    <t>f8605aab-7723-43f1-8b1a-05dc7e3507d5</t>
   </si>
   <si>
     <t>Remote Deposit</t>
   </si>
   <si>
-    <t>5fc4f1ae-a104-412a-b6ab-4fcdc64f28c0</t>
-  </si>
-  <si>
-    <t>39b43bcd-3214-449b-afe4-ad6456bdd139</t>
-  </si>
-  <si>
-    <t>3edd61af-b89e-4c3c-8e2b-09a963a5e6e6</t>
+    <t>c540cab4-c869-4c01-827a-30f587d4b720</t>
+  </si>
+  <si>
+    <t>10-06-2023</t>
+  </si>
+  <si>
+    <t>7221e225-50dd-4253-a47a-c538134dcf7b</t>
+  </si>
+  <si>
+    <t>e687a4ee-f9d4-4f34-b526-7fb4e3c5c5c5</t>
   </si>
   <si>
     <t>rfms</t>
   </si>
   <si>
-    <t>b5e42a02-9948-4181-8273-10c348231836</t>
-  </si>
-  <si>
-    <t>f4224c53-7ea4-4d44-8c66-0bb22babc900</t>
-  </si>
-  <si>
-    <t>f18151a7-4761-453e-9df7-56af4f626510</t>
-  </si>
-  <si>
-    <t>2ef0885f-b267-40cd-b4af-df4fdf75c0ab</t>
+    <t>740aba4f-1fbc-4a07-9a23-6a0aca06a54d</t>
+  </si>
+  <si>
+    <t>4a3dc9bb-2662-498a-9d9b-ce7e8ad77422</t>
+  </si>
+  <si>
+    <t>fd7c5294-6065-47a6-ac46-f98273bbac81</t>
+  </si>
+  <si>
+    <t>10-19-2023</t>
+  </si>
+  <si>
+    <t>12063de4-e5b5-461f-a945-1e4485e8138f</t>
   </si>
   <si>
     <t>facility deposit</t>
   </si>
   <si>
-    <t>031ece10-8965-4dc5-9ac8-3258387b4184</t>
-  </si>
-  <si>
-    <t>ab770e6b-f21a-4add-8bc7-a49ca75eda81</t>
+    <t>902482f6-edba-4293-a97b-afdec49eb1b0</t>
+  </si>
+  <si>
+    <t>716ec4a0-d4b9-46c7-8a3e-c52b07452d5d</t>
   </si>
   <si>
     <t>clover</t>
   </si>
   <si>
-    <t>26a9c5e6-b2f0-4ce1-a399-c74b942e38fe</t>
-  </si>
-  <si>
-    <t>10f9bf4e-1d5c-4c2a-84ef-18df60a7fd8f</t>
+    <t>c6a0cdc2-018d-4af5-95b1-c1b58fb4ed62</t>
+  </si>
+  <si>
+    <t>411f33dd-2836-4ee3-a050-aec58483958c</t>
   </si>
   <si>
     <t>fidelis</t>
   </si>
   <si>
-    <t>ec0cec5f-4f3f-4afa-9819-6a8126a570d2</t>
-  </si>
-  <si>
-    <t>f43cd634-4d1b-4d02-a269-9f2ac3d79233</t>
-  </si>
-  <si>
-    <t>65776a56-e7cc-435f-a774-95bccc405081</t>
-  </si>
-  <si>
-    <t>896e3b83-c073-4a8e-b16b-4f355ee01379</t>
-  </si>
-  <si>
-    <t>1cc75a5d-43ff-4e45-ba44-e70abbe8d750</t>
-  </si>
-  <si>
-    <t>2385413c-59a4-45ba-9810-1fe560947e72</t>
-  </si>
-  <si>
-    <t>116203d3-c745-4619-93de-6b535f7bc2b5</t>
-  </si>
-  <si>
-    <t>6825a9d9-2f6c-44f3-b3ae-f25134bdeb7c</t>
+    <t>9b7c1c1b-b1fa-4238-94b7-11e1fe37c52e</t>
+  </si>
+  <si>
+    <t>c8db6cf5-8a4c-451f-8975-b1ddd47dc5cc</t>
+  </si>
+  <si>
+    <t>10-30-2023</t>
+  </si>
+  <si>
+    <t>98e5c087-eb18-49f5-80d7-f8280f983850</t>
+  </si>
+  <si>
+    <t>9745eaae-5d14-4dcb-a606-b84742abf2b7</t>
+  </si>
+  <si>
+    <t>833fe5e1-47b5-4066-ab8e-5fc29f8314d2</t>
+  </si>
+  <si>
+    <t>435f10af-d8c3-422f-a728-92401f80bd0c</t>
+  </si>
+  <si>
+    <t>75dc642b-bafd-413a-99f0-1d902c025214</t>
+  </si>
+  <si>
+    <t>df866753-a4cf-4112-8b95-d2cbbf709549</t>
   </si>
   <si>
     <t>optum roster</t>
   </si>
   <si>
-    <t>a1522029-80af-4b0c-bb95-cb52116f71fe</t>
-  </si>
-  <si>
-    <t>e4bcb143-dc48-4b2f-8953-5362908ef2bc</t>
-  </si>
-  <si>
-    <t>f3fc8764-bde4-4771-b330-e1da2e432e2a</t>
-  </si>
-  <si>
-    <t>9d29ed83-36d6-48a2-ba30-e387716b8a26</t>
-  </si>
-  <si>
-    <t>dad7148d-1e7a-4bf9-a37c-66ccc7ccf59b</t>
-  </si>
-  <si>
-    <t>f567c812-3a2f-4e16-ad02-887714a69b9e</t>
-  </si>
-  <si>
-    <t>91eacbe7-d8ce-4f1a-aed4-955fc980b575</t>
-  </si>
-  <si>
-    <t>4c90147f-e8dc-4b5c-84eb-e358a81e753e</t>
-  </si>
-  <si>
-    <t>8b6ca393-4b07-4576-9732-c4d93bc9c811</t>
-  </si>
-  <si>
-    <t>805aefe4-42ea-43cc-ad14-40a87b7056ea</t>
+    <t>27defd1a-0470-4e47-96bf-1d3b313e3f66</t>
+  </si>
+  <si>
+    <t>968bed73-54a8-409c-ad9f-7b68bf9d2dd0</t>
+  </si>
+  <si>
+    <t>ea9251e0-c524-4c31-aa33-d682c5edda47</t>
+  </si>
+  <si>
+    <t>41b131e5-e37a-44d8-8f64-55b52df88883</t>
+  </si>
+  <si>
+    <t>12c1527f-c7fb-48b8-a26f-784f4d8784ea</t>
+  </si>
+  <si>
+    <t>ddc4b5a2-92df-4619-ac0d-83e9737e0f4d</t>
+  </si>
+  <si>
+    <t>a9985183-3220-4269-a5f8-e6a0b7300e7b</t>
+  </si>
+  <si>
+    <t>9454eb9d-2648-445c-8000-44fd9a3655a1</t>
+  </si>
+  <si>
+    <t>3db7ce6c-8310-43be-9227-1c39122cc261</t>
+  </si>
+  <si>
+    <t>76c5e9a3-071b-445d-b0b9-964569f19127</t>
   </si>
   <si>
     <t>Aetna Better Health</t>
   </si>
   <si>
-    <t>011c44a4-321d-4d0f-a4cc-4fbeaa4e087c</t>
-  </si>
-  <si>
-    <t>2e096d86-5858-4bc3-813a-ca3f33b3befb</t>
-  </si>
-  <si>
-    <t>d07b3c80-8089-438d-b68d-829c2aa7c95a</t>
-  </si>
-  <si>
-    <t>e25128b4-1fd3-4f4b-97c6-134f5beb2e12</t>
-  </si>
-  <si>
-    <t>913b1807-e527-46fb-858e-c2f6ae242a0f</t>
-  </si>
-  <si>
-    <t>3f0ec2c6-38eb-4389-a2b2-b9e47344f4da</t>
-  </si>
-  <si>
-    <t>34bc0db7-9edf-46a6-a4f4-268cf989f422</t>
-  </si>
-  <si>
-    <t>d10a48c4-c334-4242-a48e-1d5c6eed1ade</t>
-  </si>
-  <si>
-    <t>23265898-e44c-4e57-b006-fa32c334b63e</t>
-  </si>
-  <si>
-    <t>7f487e9d-926b-4e46-9bb8-ae6bb1106c98</t>
-  </si>
-  <si>
-    <t>1fc07bd2-136f-46a0-b548-f720d5cfb497</t>
-  </si>
-  <si>
-    <t>a9c67fb8-f612-42ca-afba-96aa594b5aad</t>
-  </si>
-  <si>
-    <t>95d976ce-42bc-495d-96be-74848ffb4f19</t>
-  </si>
-  <si>
-    <t>1c68fdbd-01c2-47a0-9006-030e95a4efaa</t>
-  </si>
-  <si>
-    <t>0b7254fa-b77c-49d6-a96b-35f012975116</t>
-  </si>
-  <si>
-    <t>111fe228-499c-4576-ac8b-39a4f99bdc75</t>
-  </si>
-  <si>
-    <t>471f2109-e71a-471d-aeca-0759aa174156</t>
-  </si>
-  <si>
-    <t>081f2684-d2d0-4404-a851-4f75ed438159</t>
-  </si>
-  <si>
-    <t>529e927d-8256-4af3-9c6f-a73fd63b2896</t>
-  </si>
-  <si>
-    <t>b1234806-cce2-4254-880a-df4d5b2c7fa6</t>
-  </si>
-  <si>
-    <t>14510737-8eea-4930-a73a-190f658893ea</t>
-  </si>
-  <si>
-    <t>32318ac2-ed0d-46e2-ac68-4ef870de1b69</t>
-  </si>
-  <si>
-    <t>fb055faf-80cf-4a79-a546-c67b34270b04</t>
-  </si>
-  <si>
-    <t>81018b38-9718-4f4c-bc40-e0b2cf59e024</t>
-  </si>
-  <si>
-    <t>527b3fb1-3925-40a4-9682-bd992c6d4346</t>
-  </si>
-  <si>
-    <t>5c196434-634e-49d2-80e2-c87df0460770</t>
-  </si>
-  <si>
-    <t>40b5b3f9-f91e-43ee-bfde-cf54dda54419</t>
-  </si>
-  <si>
-    <t>8526d992-301d-41ee-95ac-d5fb656b32e6</t>
-  </si>
-  <si>
-    <t>e7e584d4-deab-4462-bc82-716a07b35ab6</t>
-  </si>
-  <si>
-    <t>e45599b3-284a-46f0-9d94-0b0d968e9a43</t>
-  </si>
-  <si>
-    <t>95805496-77b8-4ad5-9fc5-d360f3d34b38</t>
-  </si>
-  <si>
-    <t>9347804b-6aba-4897-b56a-4509c0ad59d7</t>
+    <t>b106d8cb-5351-4c1f-bcea-a09c7041d5ef</t>
+  </si>
+  <si>
+    <t>a2071d67-ccae-4de9-9e06-47aa8fc20a6c</t>
+  </si>
+  <si>
+    <t>cba4f45e-4183-4ac5-9508-da303aba62ab</t>
+  </si>
+  <si>
+    <t>44091414-1e2f-42df-9d78-cea9d1e0af61</t>
+  </si>
+  <si>
+    <t>827d8d6b-356d-4a00-9b4d-1def7980b49e</t>
+  </si>
+  <si>
+    <t>23709f65-cd41-4cf4-9507-fc657f84a4ba</t>
+  </si>
+  <si>
+    <t>d9bd8f6a-f695-490a-8f25-51004d409b65</t>
+  </si>
+  <si>
+    <t>22b88861-2cba-4f38-a600-8921f7a40f35</t>
+  </si>
+  <si>
+    <t>10-24-2023</t>
+  </si>
+  <si>
+    <t>41f7837a-a856-4912-9621-0174f655a903</t>
+  </si>
+  <si>
+    <t>baa02208-dcd8-4f8f-85b0-f7e4b291ca60</t>
+  </si>
+  <si>
+    <t>5638e06a-7b2c-49f5-b335-73b60742f3b6</t>
+  </si>
+  <si>
+    <t>c238e4d1-cfbb-4e57-9fc0-8cc298c2498a</t>
+  </si>
+  <si>
+    <t>a945ac18-123a-42d3-96a0-743cca6a2c7f</t>
+  </si>
+  <si>
+    <t>10-16-2023</t>
+  </si>
+  <si>
+    <t>60ecfba3-5e19-4a72-b859-5a92885235dd</t>
+  </si>
+  <si>
+    <t>10-12-2023</t>
+  </si>
+  <si>
+    <t>fa3e2048-e739-4d5a-9538-ea41c29ef41f</t>
+  </si>
+  <si>
+    <t>4bb88de2-9a99-4a01-9990-21850bca8853</t>
+  </si>
+  <si>
+    <t>82a0d9e1-a25a-4c72-a5eb-60db183254ff</t>
+  </si>
+  <si>
+    <t>f1773005-54c5-4ed0-adaf-47293a370937</t>
+  </si>
+  <si>
+    <t>d0bae9e3-f2c8-4792-b5b7-ab950a45325d</t>
+  </si>
+  <si>
+    <t>6561f062-bbe7-4a3f-a9cc-cb585a3c343f</t>
+  </si>
+  <si>
+    <t>4c4286bb-fc20-438c-a460-4ca8f23f6891</t>
+  </si>
+  <si>
+    <t>10-20-2023</t>
+  </si>
+  <si>
+    <t>6580fa38-185a-4c66-9ca1-48b7b394e339</t>
+  </si>
+  <si>
+    <t>21c659cd-63ce-47f0-8d06-7bfcec5e7587</t>
+  </si>
+  <si>
+    <t>21a8f1b6-8a22-4ea0-90bf-656d18945d63</t>
+  </si>
+  <si>
+    <t>10-03-2023</t>
+  </si>
+  <si>
+    <t>67911d35-f062-4f12-943a-7e499a3f2769</t>
+  </si>
+  <si>
+    <t>a0bdf3fe-5e22-4da6-aa48-c3f5ee1bbc6c</t>
+  </si>
+  <si>
+    <t>10-01-2023</t>
+  </si>
+  <si>
+    <t>d088de26-9008-45ac-af06-4123aced2788</t>
+  </si>
+  <si>
+    <t>efe72585-fb30-4340-ae85-8686afb0bc2c</t>
+  </si>
+  <si>
+    <t>da6e4e15-418f-4889-b289-4a87608bfcd3</t>
+  </si>
+  <si>
+    <t>c2c295ed-d0a4-4118-bad0-cb19e93b1fb8</t>
+  </si>
+  <si>
+    <t>4d87df4d-10b6-4917-9e54-55580960768d</t>
+  </si>
+  <si>
+    <t>a607b4cb-0034-449f-866e-72f8527fea83</t>
   </si>
   <si>
     <t>credit card</t>
   </si>
   <si>
-    <t>de72b566-389e-4129-9d59-3ec85f0d297e</t>
-  </si>
-  <si>
-    <t>6b965dc7-9d94-4add-ac77-767f1fd5d65b</t>
-  </si>
-  <si>
-    <t>a580bf1f-ada5-4e23-9376-b3087c0bf0c4</t>
-  </si>
-  <si>
-    <t>470d240b-9f75-4c05-83e2-d360223d9100</t>
-  </si>
-  <si>
-    <t>b7372ae8-e147-40db-a8db-5e081879a633</t>
-  </si>
-  <si>
-    <t>8eb504ea-e1c6-4280-beff-5ab18d004acf</t>
-  </si>
-  <si>
-    <t>4a944f2c-d4f6-42de-9b8b-b719c28cb9cf</t>
-  </si>
-  <si>
-    <t>1f6fbcd4-ffec-4b5c-8dcf-c478c703d309</t>
-  </si>
-  <si>
-    <t>c79af2f7-0065-4c42-948c-2cba15868490</t>
-  </si>
-  <si>
-    <t>6bdd4286-0324-41e5-8b82-eee88a4b1cdb</t>
-  </si>
-  <si>
-    <t>83796022-2ff1-4278-8c9f-da2b78cac1a6</t>
-  </si>
-  <si>
-    <t>20a7be08-2b6e-4963-b630-c62792a2f4b3</t>
-  </si>
-  <si>
-    <t>21195692-19fe-4abd-aacc-62649c24de3f</t>
-  </si>
-  <si>
-    <t>dfc4a7d8-44d1-44e2-80a2-9af004b9bf0a</t>
-  </si>
-  <si>
-    <t>4fef1d4a-5b29-4edf-95cd-9e2324d185ac</t>
-  </si>
-  <si>
-    <t>e01efbe0-b6de-4ef7-adb2-bb4445634394</t>
-  </si>
-  <si>
-    <t>edabca8c-65eb-46f6-9054-87dcb5e27b0b</t>
-  </si>
-  <si>
-    <t>39b45d63-8aa1-4283-8e98-d2359387d38a</t>
-  </si>
-  <si>
-    <t>fdbd2be7-2450-4936-a5cd-c36452c25c41</t>
-  </si>
-  <si>
-    <t>b4722524-a6a2-45f2-bdb1-eaac49f60b9c</t>
-  </si>
-  <si>
-    <t>2fe69bd6-eb03-419d-9ffc-6fe6e226fe2d</t>
-  </si>
-  <si>
-    <t>8951a086-43c8-41c5-93aa-282f9367f84e</t>
-  </si>
-  <si>
-    <t>fb3505af-1d90-4beb-87bb-fcf5494b0625</t>
-  </si>
-  <si>
-    <t>0bbb7cd4-f4b0-4a1e-be81-b19063c0ce25</t>
-  </si>
-  <si>
-    <t>8eda600e-074e-4b5b-b930-94d4dcb42ec1</t>
-  </si>
-  <si>
-    <t>274bea37-669e-42c4-be6c-d5ffa0ec8c2e</t>
-  </si>
-  <si>
-    <t>99fe3c15-3ac3-41eb-bd93-bba102ad1d50</t>
+    <t>85d9978f-caea-4e61-bdca-966851f8b2fa</t>
+  </si>
+  <si>
+    <t>d4b3eaa9-dbb7-4e52-a0ae-cc6819cee727</t>
+  </si>
+  <si>
+    <t>10-26-2023</t>
+  </si>
+  <si>
+    <t>ceb13a13-26d7-4b54-a80a-011b3ba43c59</t>
+  </si>
+  <si>
+    <t>97174bae-c245-4c89-ae45-788c713e9f7f</t>
+  </si>
+  <si>
+    <t>f94e09e5-a538-4026-a64a-c6781b76f9c3</t>
+  </si>
+  <si>
+    <t>22797328-a0ed-4e60-a1ed-da16443b9222</t>
+  </si>
+  <si>
+    <t>37ebdd69-31e6-4ad4-bb0b-69d4250dca1e</t>
+  </si>
+  <si>
+    <t>ff00ccac-a247-4a24-bbea-6c93b4e3b0be</t>
+  </si>
+  <si>
+    <t>10-08-2023</t>
+  </si>
+  <si>
+    <t>74ba1ec9-22ec-41ed-8591-589e03722dae</t>
+  </si>
+  <si>
+    <t>ba557c9e-029f-44b4-a592-f38dcbebb32f</t>
+  </si>
+  <si>
+    <t>eb5b1cdf-3b5a-4c22-9921-666bdfba4acd</t>
+  </si>
+  <si>
+    <t>551d0b0c-c3aa-48ca-ba51-f5e591408439</t>
+  </si>
+  <si>
+    <t>a0ea2f3f-1f04-480d-a422-ad2d54f87c1b</t>
+  </si>
+  <si>
+    <t>29efdf38-b4bb-4f69-959c-b27322d8b3ee</t>
+  </si>
+  <si>
+    <t>10-31-2023</t>
+  </si>
+  <si>
+    <t>eb3342e7-ba56-4392-9195-75af3a7590ca</t>
+  </si>
+  <si>
+    <t>cc05f618-4db9-4b3f-8b9c-e8a33c2f4130</t>
+  </si>
+  <si>
+    <t>ef3b4a5e-2d11-4f2e-9d59-5ae6b763be3c</t>
+  </si>
+  <si>
+    <t>a23a6bc0-09bc-44fe-ad4f-c5687454db9e</t>
+  </si>
+  <si>
+    <t>484340c1-48bc-4095-9c4b-6030dd5f5083</t>
+  </si>
+  <si>
+    <t>73bff825-5019-4ca9-954c-6e40317b2f39</t>
+  </si>
+  <si>
+    <t>625a72c0-e2a6-4bd8-a1e7-3e814aca7495</t>
+  </si>
+  <si>
+    <t>8a3796ab-6475-4782-853b-a1723a01c92b</t>
+  </si>
+  <si>
+    <t>a5df0e3a-2505-4442-9344-b0f142b839ce</t>
+  </si>
+  <si>
+    <t>d0c3dd52-b729-4545-a3fc-ead4c92fb736</t>
+  </si>
+  <si>
+    <t>853172ba-fe45-43a3-8436-cc7ee2309aca</t>
+  </si>
+  <si>
+    <t>40d8f009-04f0-4863-b6fe-fb1fa54cabca</t>
+  </si>
+  <si>
+    <t>ae40219c-2d19-4053-ab56-ea35ff1589cd</t>
   </si>
   <si>
     <t>gnss wire 9/5/23</t>
   </si>
   <si>
-    <t>05ea1209-40a1-4db0-b41c-f6919dff797b</t>
-  </si>
-  <si>
-    <t>acc4d5de-7582-4cb2-bf2d-748f6107e67e</t>
+    <t>0ebcce0f-fc07-46a1-915c-868e428ebc55</t>
+  </si>
+  <si>
+    <t>6bf1c75f-01cc-4da1-8600-a816daef8b41</t>
   </si>
   <si>
     <t>wellmed cc</t>
   </si>
   <si>
-    <t>4a36db25-1bef-40af-a021-b12e98f16a41</t>
+    <t>38980974-9cbf-408b-a644-dd51f8e51eb1</t>
   </si>
   <si>
     <t>humana cc</t>
   </si>
   <si>
-    <t>32945391-91c4-4a64-ab21-2ae76a178264</t>
-  </si>
-  <si>
-    <t>8eebbe5d-d9ee-4898-8b91-1afb223b655c</t>
+    <t>9995a437-1344-4cd6-b0d8-c46cc7479e92</t>
+  </si>
+  <si>
+    <t>9e45718c-101c-4a1f-961f-5d20daefaa61</t>
   </si>
   <si>
     <t>gnss wire back up</t>
   </si>
   <si>
-    <t>6c5ed946-87d1-4587-95d4-2acc800a10db</t>
+    <t>bf1e273f-d8d1-4ddf-a4f1-cf9643c438bd</t>
   </si>
   <si>
     <t>wire</t>
   </si>
   <si>
-    <t>355ba489-4909-468b-84d4-41e021a62f4f</t>
+    <t>c290c626-9ce9-4703-8206-9748e70f5eb3</t>
   </si>
   <si>
     <t>gnss wire</t>
   </si>
   <si>
-    <t>8bd91d2b-25bf-471c-ae39-714294a3afcd</t>
+    <t>7707934d-3e0f-4936-a5db-2821b62f6c0c</t>
   </si>
   <si>
     <t>genesis wire 10/5/23</t>
   </si>
   <si>
-    <t>5b49ae6c-a92a-4d45-9abf-32f678146a0c</t>
-  </si>
-  <si>
-    <t>bfdc30c0-57c0-48ac-a50d-8b3ea5da0304</t>
-  </si>
-  <si>
-    <t>c551a659-bb6c-4ff4-a018-89158c40f177</t>
+    <t>c5631e61-2306-4962-b0e8-653c3bfff479</t>
+  </si>
+  <si>
+    <t>397b1515-89d5-4bf0-8d64-0f78926ada7b</t>
+  </si>
+  <si>
+    <t>07c2af8e-fadc-42b9-b169-cb011ad83ebd</t>
   </si>
   <si>
     <t>RFMS</t>
   </si>
   <si>
-    <t>aa63f995-7bee-423a-8286-945b9484ff06</t>
-  </si>
-  <si>
-    <t>1a3f6e47-62ff-422f-beed-0d744c207f5e</t>
-  </si>
-  <si>
-    <t>74edb644-01da-4225-ac71-88b7837c9b51</t>
-  </si>
-  <si>
-    <t>e693b248-8ab3-438a-9f74-e2ad41c33ad0</t>
-  </si>
-  <si>
-    <t>6c9503af-f4a3-40ac-8fea-1899aa6ccb81</t>
-  </si>
-  <si>
-    <t>ccf3b0ed-f794-47b6-8c6b-0c752f6745cd</t>
-  </si>
-  <si>
-    <t>4dd4e6a2-182b-4975-8c1d-e898b9b11c95</t>
-  </si>
-  <si>
-    <t>60c6e13f-4c4d-46c9-9e34-67402c0d1695</t>
-  </si>
-  <si>
-    <t>b3a5a0d0-6933-4ae6-91d4-9bfc98669bb3</t>
-  </si>
-  <si>
-    <t>7e8495a1-3bfe-4f41-b466-742178afd08b</t>
-  </si>
-  <si>
-    <t>1390597c-f8e5-46f8-a1c5-a81765fc46c7</t>
+    <t>59cc3e98-4546-4e2c-9550-3349c23acb2e</t>
+  </si>
+  <si>
+    <t>11-01-2023</t>
+  </si>
+  <si>
+    <t>caf5407c-cb4c-4d74-a354-63880ee4220e</t>
+  </si>
+  <si>
+    <t>11-02-2023</t>
+  </si>
+  <si>
+    <t>233ee3b6-eabd-4892-9c03-e7bb22582f83</t>
+  </si>
+  <si>
+    <t>cb0e82ee-cac9-46cd-a125-9e75a99c96ab</t>
+  </si>
+  <si>
+    <t>184e0948-64ed-45ab-92f4-4ef90c48f965</t>
+  </si>
+  <si>
+    <t>048d66e5-4183-4296-b821-097d35ca38f5</t>
+  </si>
+  <si>
+    <t>f0e2045c-d3a6-45aa-98d3-b378eb206a7f</t>
+  </si>
+  <si>
+    <t>3589b8c2-1966-4b97-9423-f03bdc8c9fd5</t>
+  </si>
+  <si>
+    <t>3c604f82-1991-445f-91c8-b4175039e230</t>
+  </si>
+  <si>
+    <t>6d151ab2-aec6-4122-a98e-025cab4793e2</t>
+  </si>
+  <si>
+    <t>29f1442d-3e83-4109-9e0f-344cdf55ecd0</t>
   </si>
   <si>
     <t>hnjh ( total is 3681.72)</t>
   </si>
   <si>
-    <t>fd525be3-0bde-408b-9610-4715c6a41eb8</t>
-  </si>
-  <si>
-    <t>0b5abed4-271d-4b2d-a7aa-680b691c6be7</t>
-  </si>
-  <si>
-    <t>5676a13b-735b-4c5a-9741-58d0c6eb5eb5</t>
-  </si>
-  <si>
-    <t>6b33fed1-44da-43b9-b75a-38c1cbf5751e</t>
-  </si>
-  <si>
-    <t>fe4ae38f-bc84-4b30-b7e2-fab44604667a</t>
-  </si>
-  <si>
-    <t>0dbf5b4a-38c1-4df8-90a3-2853fd1fe991</t>
-  </si>
-  <si>
-    <t>a83a9962-3a7a-4937-8f39-2c3e95d5074e</t>
-  </si>
-  <si>
-    <t>afece8ff-68aa-4824-92fa-c40d45226a59</t>
-  </si>
-  <si>
-    <t>6c9073d9-65fe-419c-a6fd-d148c1a742d9</t>
-  </si>
-  <si>
-    <t>b2882b5c-a3cf-4f04-9c50-b6672bf69610</t>
-  </si>
-  <si>
-    <t>dab284fa-416a-4996-902a-c44e69cabe83</t>
+    <t>ee301fe4-e38d-4ee6-8c40-ea8944ff9a02</t>
+  </si>
+  <si>
+    <t>3897012e-a556-4f66-ab0f-ade87d3144aa</t>
+  </si>
+  <si>
+    <t>bfab7af3-dc8a-41d2-991a-ca1d81d92472</t>
+  </si>
+  <si>
+    <t>2f2587f4-685b-488a-a89f-47231ded6fe9</t>
+  </si>
+  <si>
+    <t>4d3afaf3-77b6-4f91-9ca7-477d0b4c6f5c</t>
+  </si>
+  <si>
+    <t>642dbb44-f1a6-4a81-81f2-29667dc88d80</t>
+  </si>
+  <si>
+    <t>bbf5c236-b922-48b6-b5a7-b16c7eac47af</t>
+  </si>
+  <si>
+    <t>8b98d7c1-2e40-4647-8854-a0966dd60aae</t>
+  </si>
+  <si>
+    <t>c384ffe7-6f49-4262-adc8-0eb1a5a6c3c2</t>
+  </si>
+  <si>
+    <t>94396084-c46c-46ae-9499-d0eba14dba88</t>
+  </si>
+  <si>
+    <t>4bed6ed4-a8f1-404c-8b58-38b15f1e690b</t>
   </si>
   <si>
     <t>gen wire</t>
   </si>
   <si>
-    <t>909d643d-2a6f-4b52-a82d-25fe03e55234</t>
+    <t>2a9ff3fa-b345-41a6-8033-7afbca89cf29</t>
   </si>
   <si>
     <t>uhc cc</t>
   </si>
   <si>
-    <t>853f1c68-217d-482e-8d1f-5a5ea4a5e2c4</t>
-  </si>
-  <si>
-    <t>93e62af7-7db0-46de-92d7-1069b1050fb2</t>
+    <t>dfd677df-9a14-49b0-8dfe-fbc85ef94b7e</t>
+  </si>
+  <si>
+    <t>31941ba6-32bd-4edb-b639-d616bf20da9a</t>
+  </si>
+  <si>
+    <t>10-27-2023</t>
   </si>
   <si>
     <t>Automatic Transfer</t>
   </si>
   <si>
-    <t>ee9eb2c7-66d4-426d-bdfe-6a128e058ab5</t>
-  </si>
-  <si>
-    <t>88c67d3e-0a45-4bd5-8b46-2a1795284936</t>
-  </si>
-  <si>
-    <t>465dea24-4388-4533-9a25-49d3414a0f19</t>
-  </si>
-  <si>
-    <t>baa51d33-6f09-48a3-958e-e83dc9abd8ad</t>
-  </si>
-  <si>
-    <t>e037d4db-b451-4799-9acc-35d9fd8a4378</t>
-  </si>
-  <si>
-    <t>bdadd8a7-ffa7-4980-866e-b6a30bf2c49e</t>
-  </si>
-  <si>
-    <t>4fdf8c25-67d9-4c0e-9698-dcd0dc567f2d</t>
-  </si>
-  <si>
-    <t>7c1b065e-dbbd-444a-a1fd-5788aff05368</t>
-  </si>
-  <si>
-    <t>e3d0e893-8288-40ca-be52-66eec9fbecbc</t>
-  </si>
-  <si>
-    <t>fa959a81-748f-45f4-8fb2-1d22392b09fe</t>
-  </si>
-  <si>
-    <t>bf96f3b6-67d3-414e-9fcd-571d37c423c6</t>
-  </si>
-  <si>
-    <t>ce300b84-79b7-433d-8acc-d407e2f6d346</t>
-  </si>
-  <si>
-    <t>f2f32765-0351-45b3-817a-db22b20ffdc1</t>
+    <t>a4d0cf63-47b7-47a6-98a7-f6ab71b36601</t>
+  </si>
+  <si>
+    <t>0e8c06f4-fce1-4a43-b0df-b38e1584d6cc</t>
+  </si>
+  <si>
+    <t>b55cb5db-e12a-4ccc-a27b-5a3764f5a11d</t>
+  </si>
+  <si>
+    <t>1c3f76ca-8655-493c-a016-98cb46965a05</t>
+  </si>
+  <si>
+    <t>1611f94b-43d4-4e3a-8187-275354e863f4</t>
+  </si>
+  <si>
+    <t>74e6b77f-9694-4617-9047-7b448d53c7d5</t>
+  </si>
+  <si>
+    <t>2b223631-23ab-4986-86b2-e3759ea30413</t>
+  </si>
+  <si>
+    <t>b28ae226-5c23-4df0-ae04-d23fe2095983</t>
+  </si>
+  <si>
+    <t>8cc7c3fd-e33d-4017-bf50-26ffe59d8745</t>
+  </si>
+  <si>
+    <t>987c9abb-d984-4ac2-9666-7f86b60c3f59</t>
+  </si>
+  <si>
+    <t>a4830f4d-9901-497b-9d1a-b1626ee2be68</t>
+  </si>
+  <si>
+    <t>6afa6d89-5e7c-45d2-886c-f0789e1c3aa8</t>
+  </si>
+  <si>
+    <t>18a5991c-10d5-4afd-97e0-366bf9706301</t>
   </si>
 </sst>
 </file>
@@ -1002,23 +1080,23 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>45201</v>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>1794.93</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3">
-        <v>45203</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I4" s="3">
         <v>1794.93</v>
@@ -1026,25 +1104,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45222</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45222</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3">
         <v>10</v>
@@ -1052,25 +1130,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>45210</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3">
         <v>10892.88</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3">
-        <v>45210</v>
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I6" s="3">
         <v>10892.88</v>
@@ -1078,25 +1156,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45204</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
         <v>14605.06</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3">
-        <v>45209</v>
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" s="3">
         <v>14605.06</v>
@@ -1104,25 +1182,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45217</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3">
         <v>3600</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45217</v>
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I8" s="3">
         <v>3600</v>
@@ -1130,25 +1208,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45224</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <v>7442.7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45224</v>
+        <v>29</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I9" s="3">
         <v>7442.7</v>
@@ -1156,25 +1234,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45212</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3">
         <v>5276.55</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45216</v>
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I10" s="3">
         <v>5276.55</v>
@@ -1182,25 +1260,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45208</v>
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
         <v>7967.17</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45210</v>
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11" s="3">
         <v>7967.17</v>
@@ -1208,25 +1286,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45216</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3">
         <v>19359.39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3">
-        <v>45216</v>
+        <v>39</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I12" s="3">
         <v>19359.39</v>
@@ -1234,25 +1312,25 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45205</v>
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
         <v>7600</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="3">
-        <v>45205</v>
+        <v>43</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I13" s="3">
         <v>7600</v>
@@ -1260,25 +1338,25 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45203</v>
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3">
         <v>4273.85</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45204</v>
+        <v>46</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I14" s="3">
         <v>4273.85</v>
@@ -1286,25 +1364,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45216</v>
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3">
         <v>14003.8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="3">
-        <v>45218</v>
+        <v>48</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I15" s="3">
         <v>14003.8</v>
@@ -1312,25 +1390,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3">
-        <v>45205</v>
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3">
         <v>13108.16</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="3">
-        <v>45205</v>
+        <v>52</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I16" s="3">
         <v>13108.16</v>
@@ -1338,25 +1416,25 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3">
-        <v>45201</v>
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3">
         <v>3766</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="3">
-        <v>45201</v>
+        <v>55</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I17" s="3">
         <v>3766</v>
@@ -1364,25 +1442,25 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="3">
-        <v>45204</v>
+        <v>56</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3">
         <v>8118.05</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3">
-        <v>45204</v>
+        <v>58</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I18" s="3">
         <v>8118.05</v>
@@ -1390,25 +1468,25 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="3">
-        <v>45229</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3">
         <v>3894.87</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="3">
-        <v>45229</v>
+        <v>61</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I19" s="3">
         <v>3894.87</v>
@@ -1416,25 +1494,25 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="3">
-        <v>45204</v>
+        <v>62</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3">
         <v>24762.74</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="3">
-        <v>45204</v>
+        <v>63</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I20" s="3">
         <v>24762.74</v>
@@ -1442,25 +1520,25 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="3">
-        <v>45216</v>
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3">
         <v>66362.89999999999</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="3">
-        <v>45216</v>
+        <v>65</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I21" s="3">
         <v>66362.89999999999</v>
@@ -1468,25 +1546,25 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="3">
-        <v>45216</v>
+        <v>66</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3">
         <v>24000</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45218</v>
+        <v>68</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I22" s="3">
         <v>24000</v>
@@ -1494,25 +1572,25 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="3">
-        <v>45210</v>
+        <v>69</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3">
         <v>3525.52</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="3">
-        <v>45210</v>
+        <v>70</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I23" s="3">
         <v>3525.52</v>
@@ -1520,25 +1598,25 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="3">
-        <v>45229</v>
+        <v>71</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3">
         <v>5191.8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="3">
-        <v>45229</v>
+        <v>72</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I24" s="3">
         <v>5191.8</v>
@@ -1546,25 +1624,25 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="3">
-        <v>45210</v>
+        <v>73</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D25" s="3">
         <v>36042.72</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="3">
-        <v>45210</v>
+        <v>74</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I25" s="3">
         <v>36042.72</v>
@@ -1572,25 +1650,25 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="3">
-        <v>45212</v>
+        <v>75</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3">
         <v>139340.44</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="3">
-        <v>45212</v>
+        <v>76</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I26" s="3">
         <v>139340.44</v>
@@ -1598,25 +1676,25 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="3">
-        <v>45210</v>
+        <v>77</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D27" s="3">
         <v>31565.3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="3">
-        <v>45210</v>
+        <v>79</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I27" s="3">
         <v>31565.3</v>
@@ -1624,25 +1702,25 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="3">
-        <v>45209</v>
+        <v>80</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D28" s="3">
         <v>11854.8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="3">
-        <v>45209</v>
+        <v>81</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I28" s="3">
         <v>11854.8</v>
@@ -1650,25 +1728,25 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="3">
-        <v>45203</v>
+        <v>82</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3">
         <v>8400</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="3">
-        <v>45203</v>
+        <v>83</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I29" s="3">
         <v>8400</v>
@@ -1676,25 +1754,25 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="3">
-        <v>45217</v>
+        <v>84</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D30" s="3">
         <v>83152.14999999999</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="3">
-        <v>45217</v>
+        <v>85</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I30" s="3">
         <v>83152.14999999999</v>
@@ -1702,25 +1780,25 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="3">
-        <v>45223</v>
+        <v>86</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3">
         <v>57552.58</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="3">
-        <v>45223</v>
+        <v>88</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I31" s="3">
         <v>57552.58</v>
@@ -1728,25 +1806,25 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="3">
-        <v>45218</v>
+        <v>89</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="3">
         <v>339.27</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="3">
-        <v>45222</v>
+        <v>90</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I32" s="3">
         <v>339.27</v>
@@ -1754,25 +1832,25 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="3">
-        <v>45212</v>
+        <v>91</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D33" s="3">
         <v>212.1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="3">
-        <v>45215</v>
+        <v>92</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I33" s="3">
         <v>212.1</v>
@@ -1780,25 +1858,25 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="3">
-        <v>45211</v>
+        <v>94</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3">
         <v>26453.7</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="3">
-        <v>45210</v>
+        <v>96</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I34" s="3">
         <v>26453.7</v>
@@ -1806,25 +1884,25 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="3">
-        <v>45211</v>
+        <v>97</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3">
         <v>2646.4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="3">
-        <v>45211</v>
+        <v>98</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I35" s="3">
         <v>2646.4</v>
@@ -1832,25 +1910,25 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="3">
-        <v>45215</v>
+        <v>99</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D36" s="3">
         <v>24537.16</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="3">
-        <v>45215</v>
+        <v>100</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I36" s="3">
         <v>24537.16</v>
@@ -1858,25 +1936,25 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="3">
-        <v>45218</v>
+        <v>101</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D37" s="3">
         <v>1753.23</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="3">
-        <v>45219</v>
+        <v>102</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I37" s="3">
         <v>1753.23</v>
@@ -1884,25 +1962,25 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="3">
-        <v>45216</v>
+        <v>104</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D38" s="3">
         <v>219.17</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="3">
-        <v>45216</v>
+        <v>105</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I38" s="3">
         <v>219.17</v>
@@ -1910,25 +1988,25 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="3">
-        <v>45202</v>
+        <v>106</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3">
         <v>63582.2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="3">
-        <v>45203</v>
+        <v>108</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I39" s="3">
         <v>63582.2</v>
@@ -1936,25 +2014,25 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="3">
-        <v>45200</v>
+        <v>109</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D40" s="3">
         <v>350.7</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="3">
-        <v>45201</v>
+        <v>111</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I40" s="3">
         <v>350.7</v>
@@ -1962,25 +2040,25 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="3">
-        <v>45222</v>
+        <v>112</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="3">
         <v>35295.32</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="3">
-        <v>45224</v>
+        <v>113</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I41" s="3">
         <v>35295.32</v>
@@ -1988,25 +2066,25 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="3">
-        <v>45203</v>
+        <v>114</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D42" s="3">
         <v>8931.24</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="3">
-        <v>45203</v>
+        <v>115</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I42" s="3">
         <v>8931.24</v>
@@ -2014,25 +2092,25 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="3">
-        <v>45217</v>
+        <v>116</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D43" s="3">
         <v>1764</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="3">
-        <v>45218</v>
+        <v>118</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I43" s="3">
         <v>1764</v>
@@ -2040,25 +2118,25 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="3">
-        <v>45225</v>
+        <v>119</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D44" s="3">
         <v>8160</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>45225</v>
+        <v>121</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I44" s="3">
         <v>8160</v>
@@ -2066,25 +2144,25 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="3">
-        <v>45217</v>
+        <v>122</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D45" s="3">
         <v>7654.8</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="3">
-        <v>45217</v>
+        <v>123</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I45" s="3">
         <v>7654.8</v>
@@ -2092,25 +2170,25 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="3">
-        <v>45209</v>
+        <v>124</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D46" s="3">
         <v>10600</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="3">
-        <v>45209</v>
+        <v>125</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I46" s="3">
         <v>10600</v>
@@ -2118,25 +2196,25 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="3">
-        <v>45207</v>
+        <v>126</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D47" s="3">
         <v>6634.16</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" s="3">
-        <v>45209</v>
+        <v>128</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I47" s="3">
         <v>6634.16</v>
@@ -2144,25 +2222,25 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="3">
-        <v>45224</v>
+        <v>129</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D48" s="3">
         <v>5226.3</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="3">
-        <v>45224</v>
+        <v>130</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I48" s="3">
         <v>5226.3</v>
@@ -2170,25 +2248,25 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="3">
-        <v>45200</v>
+        <v>131</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D49" s="3">
         <v>1900</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G49" s="3">
-        <v>45216</v>
+        <v>132</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I49" s="3">
         <v>1900</v>
@@ -2196,25 +2274,25 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="3">
-        <v>45230</v>
+        <v>133</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D50" s="3">
         <v>14700</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" s="3">
-        <v>45230</v>
+        <v>135</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I50" s="3">
         <v>14700</v>
@@ -2222,25 +2300,25 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="3">
-        <v>45216</v>
+        <v>136</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D51" s="3">
         <v>16246.77</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="3">
-        <v>45216</v>
+        <v>137</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I51" s="3">
         <v>16246.77</v>
@@ -2248,25 +2326,25 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="3">
-        <v>45230</v>
+        <v>138</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D52" s="3">
         <v>6010.8</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G52" s="3">
-        <v>45230</v>
+        <v>139</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I52" s="3">
         <v>6010.8</v>
@@ -2274,25 +2352,25 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="3">
-        <v>45215</v>
+        <v>140</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D53" s="3">
         <v>127.26</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" s="3">
-        <v>45215</v>
+        <v>141</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I53" s="3">
         <v>127.26</v>
@@ -2300,25 +2378,25 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="4">
-        <v>45200</v>
+        <v>143</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D54" s="4">
         <v>4784.89</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="4">
-        <v>45201</v>
+        <v>142</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I54" s="4">
         <v>13684.89</v>
@@ -2326,25 +2404,25 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="4">
-        <v>45230</v>
+        <v>144</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="4">
         <v>250</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" s="5">
-        <v>45211</v>
+        <v>149</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I55" s="5">
         <v>12315.5</v>
@@ -2352,25 +2430,25 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="4">
-        <v>45218</v>
+        <v>145</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D56" s="4">
         <v>1800</v>
       </c>
       <c r="F56" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56">
-        <v>45219</v>
+        <v>195</v>
+      </c>
+      <c r="G56" t="s">
+        <v>103</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I56">
         <v>16393.61</v>
@@ -2378,25 +2456,25 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="4">
-        <v>45223</v>
+        <v>146</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D57" s="4">
         <v>1850</v>
       </c>
       <c r="F57" t="s">
-        <v>171</v>
-      </c>
-      <c r="G57">
-        <v>45226</v>
+        <v>196</v>
+      </c>
+      <c r="G57" t="s">
+        <v>197</v>
       </c>
       <c r="H57" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="I57">
         <v>8208.860000000001</v>
@@ -2404,25 +2482,25 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="4">
-        <v>45200</v>
+        <v>147</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="D58" s="4">
         <v>5000</v>
       </c>
       <c r="F58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G58">
-        <v>45230</v>
+        <v>199</v>
+      </c>
+      <c r="G58" t="s">
+        <v>134</v>
       </c>
       <c r="H58" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I58">
         <v>21264.4</v>
@@ -2430,25 +2508,25 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="5">
-        <v>45210</v>
+        <v>150</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D59" s="5">
         <v>7815.5</v>
       </c>
       <c r="F59" t="s">
-        <v>174</v>
-      </c>
-      <c r="G59">
-        <v>45212</v>
+        <v>200</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
       </c>
       <c r="H59" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="I59">
         <v>12315.96</v>
@@ -2456,25 +2534,25 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="5">
-        <v>45210</v>
+        <v>152</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D60" s="5">
         <v>3750</v>
       </c>
       <c r="F60" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60">
-        <v>45225</v>
+        <v>201</v>
+      </c>
+      <c r="G60" t="s">
+        <v>120</v>
       </c>
       <c r="H60" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="I60">
         <v>66343.42</v>
@@ -2482,25 +2560,25 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="5">
-        <v>45210</v>
+        <v>154</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D61" s="5">
         <v>750</v>
       </c>
       <c r="F61" t="s">
-        <v>176</v>
-      </c>
-      <c r="G61">
-        <v>45225</v>
+        <v>202</v>
+      </c>
+      <c r="G61" t="s">
+        <v>120</v>
       </c>
       <c r="H61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I61">
         <v>1858.99</v>
@@ -2508,25 +2586,25 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62">
-        <v>45200</v>
+        <v>155</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>177</v>
-      </c>
-      <c r="G62">
-        <v>45219</v>
+        <v>203</v>
+      </c>
+      <c r="G62" t="s">
+        <v>103</v>
       </c>
       <c r="H62" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="I62">
         <v>17738.6</v>
@@ -2534,25 +2612,25 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63">
-        <v>45200</v>
+        <v>157</v>
+      </c>
+      <c r="B63" t="s">
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="D63">
         <v>6.72</v>
       </c>
       <c r="F63" t="s">
-        <v>178</v>
-      </c>
-      <c r="G63">
-        <v>45223</v>
+        <v>204</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I63">
         <v>5583.29</v>
@@ -2560,25 +2638,25 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64">
-        <v>45200</v>
+        <v>159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D64">
         <v>5640.5</v>
       </c>
       <c r="F64" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64">
-        <v>45222</v>
+        <v>205</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I64">
         <v>9694.860000000001</v>
@@ -2586,25 +2664,25 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65">
-        <v>45204</v>
+        <v>161</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D65">
         <v>7185</v>
       </c>
       <c r="F65" t="s">
-        <v>180</v>
-      </c>
-      <c r="G65">
-        <v>45203</v>
+        <v>206</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I65">
         <v>3681.72</v>
@@ -2612,25 +2690,25 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66">
-        <v>45230</v>
+        <v>163</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D66">
         <v>68.45999999999999</v>
       </c>
       <c r="F66" t="s">
-        <v>181</v>
-      </c>
-      <c r="G66">
-        <v>45226</v>
+        <v>207</v>
+      </c>
+      <c r="G66" t="s">
+        <v>197</v>
       </c>
       <c r="H66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I66">
         <v>4335</v>
@@ -2638,25 +2716,25 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67">
-        <v>45200</v>
+        <v>164</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D67">
         <v>583.5</v>
       </c>
       <c r="F67" t="s">
-        <v>182</v>
-      </c>
-      <c r="G67">
-        <v>45202</v>
+        <v>208</v>
+      </c>
+      <c r="G67" t="s">
+        <v>107</v>
       </c>
       <c r="H67" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I67">
         <v>2805.74</v>
@@ -2664,25 +2742,25 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68">
-        <v>45230</v>
+        <v>165</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D68">
         <v>72.70999999999999</v>
       </c>
       <c r="F68" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68">
-        <v>45210</v>
+        <v>209</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I68">
         <v>38264.2</v>
@@ -2690,25 +2768,25 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69">
-        <v>45231</v>
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D69">
         <v>2179.23</v>
       </c>
       <c r="F69" t="s">
-        <v>184</v>
-      </c>
-      <c r="G69">
-        <v>45230</v>
+        <v>210</v>
+      </c>
+      <c r="G69" t="s">
+        <v>134</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I69">
         <v>505.02</v>
@@ -2716,25 +2794,25 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70">
-        <v>45232</v>
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D70">
         <v>1707</v>
       </c>
       <c r="F70" t="s">
-        <v>185</v>
-      </c>
-      <c r="G70">
-        <v>45224</v>
+        <v>211</v>
+      </c>
+      <c r="G70" t="s">
+        <v>28</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I70">
         <v>4604.06</v>
@@ -2742,13 +2820,13 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71">
-        <v>45222</v>
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D71">
         <v>173.99</v>
@@ -2756,13 +2834,13 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72">
-        <v>45200</v>
+        <v>172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D72">
         <v>703.4299999999999</v>
@@ -2770,13 +2848,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>148</v>
-      </c>
-      <c r="B73">
-        <v>45223</v>
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D73">
         <v>2754.06</v>
@@ -2784,13 +2862,13 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74">
-        <v>45209</v>
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D74">
         <v>14539</v>
@@ -2798,13 +2876,13 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75">
-        <v>45200</v>
+        <v>175</v>
+      </c>
+      <c r="B75" t="s">
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D75">
         <v>2800</v>
@@ -2812,13 +2890,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76">
-        <v>45209</v>
+        <v>176</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D76">
         <v>23280.5</v>
@@ -2826,13 +2904,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77">
-        <v>45232</v>
+        <v>177</v>
+      </c>
+      <c r="B77" t="s">
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D77">
         <v>246.02</v>
@@ -2840,13 +2918,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78">
-        <v>45231</v>
+        <v>178</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78">
         <v>5901.48</v>
@@ -2854,13 +2932,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79">
-        <v>45203</v>
+        <v>179</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D79">
         <v>14636.18</v>
@@ -2868,13 +2946,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80">
-        <v>45218</v>
+        <v>181</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D80">
         <v>1325</v>
@@ -2882,13 +2960,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81">
-        <v>45200</v>
+        <v>182</v>
+      </c>
+      <c r="B81" t="s">
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D81">
         <v>7000</v>
@@ -2896,13 +2974,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82">
-        <v>45201</v>
+        <v>183</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D82">
         <v>1901.24</v>
@@ -2910,13 +2988,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>159</v>
-      </c>
-      <c r="B83">
-        <v>45200</v>
+        <v>184</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D83">
         <v>-9849</v>
@@ -2924,13 +3002,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>160</v>
-      </c>
-      <c r="B84">
-        <v>45201</v>
+        <v>185</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D84">
         <v>904.5</v>
@@ -2938,13 +3016,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>161</v>
-      </c>
-      <c r="B85">
-        <v>45232</v>
+        <v>186</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D85">
         <v>17800</v>
@@ -2952,13 +3030,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>162</v>
-      </c>
-      <c r="B86">
-        <v>45224</v>
+        <v>187</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D86">
         <v>1969</v>
@@ -2966,13 +3044,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>163</v>
-      </c>
-      <c r="B87">
-        <v>45225</v>
+        <v>188</v>
+      </c>
+      <c r="B87" t="s">
+        <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D87">
         <v>2485</v>
@@ -2980,13 +3058,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>164</v>
-      </c>
-      <c r="B88">
-        <v>45209</v>
+        <v>189</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D88">
         <v>444.7</v>
@@ -2994,13 +3072,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>165</v>
-      </c>
-      <c r="B89">
-        <v>45200</v>
+        <v>190</v>
+      </c>
+      <c r="B89" t="s">
+        <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D89">
         <v>-37438.65</v>
@@ -3008,13 +3086,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90">
-        <v>45200</v>
+        <v>191</v>
+      </c>
+      <c r="B90" t="s">
+        <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D90">
         <v>-1074.21</v>
@@ -3022,13 +3100,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>168</v>
-      </c>
-      <c r="B91">
-        <v>45218</v>
+        <v>193</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D91">
         <v>13268.61</v>
